--- a/natmiOut/OldD4/LR-pairs_lrc2p/Hp-Cd163.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Hp-Cd163.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Hp</t>
   </si>
   <si>
     <t>Cd163</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.973601718002</v>
+        <v>28.09534366666667</v>
       </c>
       <c r="H2">
-        <v>24.973601718002</v>
+        <v>84.28603100000001</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.479890924521289</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.4807023781989444</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.64325583094384</v>
+        <v>0.3670103333333334</v>
       </c>
       <c r="N2">
-        <v>2.64325583094384</v>
+        <v>1.101031</v>
       </c>
       <c r="O2">
-        <v>0.2833749432912762</v>
+        <v>0.03082745086208388</v>
       </c>
       <c r="P2">
-        <v>0.2833749432912762</v>
+        <v>0.0314265409731758</v>
       </c>
       <c r="Q2">
-        <v>66.01161836077789</v>
+        <v>10.31128144421789</v>
       </c>
       <c r="R2">
-        <v>66.01161836077789</v>
+        <v>92.80153299796102</v>
       </c>
       <c r="S2">
-        <v>0.2833749432912762</v>
+        <v>0.01479381389484004</v>
       </c>
       <c r="T2">
-        <v>0.2833749432912762</v>
+        <v>0.01510681298437217</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.973601718002</v>
+        <v>28.09534366666667</v>
       </c>
       <c r="H3">
-        <v>24.973601718002</v>
+        <v>84.28603100000001</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.479890924521289</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.4807023781989444</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.03974013899234</v>
+        <v>4.583351333333333</v>
       </c>
       <c r="N3">
-        <v>6.03974013899234</v>
+        <v>13.750054</v>
       </c>
       <c r="O3">
-        <v>0.6475010853451373</v>
+        <v>0.3849838142940569</v>
       </c>
       <c r="P3">
-        <v>0.6475010853451373</v>
+        <v>0.3924654577522156</v>
       </c>
       <c r="Q3">
-        <v>150.8340647114248</v>
+        <v>128.7708308550749</v>
       </c>
       <c r="R3">
-        <v>150.8340647114248</v>
+        <v>1158.937477695674</v>
       </c>
       <c r="S3">
-        <v>0.6475010853451373</v>
+        <v>0.1847502385673072</v>
       </c>
       <c r="T3">
-        <v>0.6475010853451373</v>
+        <v>0.1886590789024274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,867 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>28.09534366666667</v>
+      </c>
+      <c r="H4">
+        <v>84.28603100000001</v>
+      </c>
+      <c r="I4">
+        <v>0.479890924521289</v>
+      </c>
+      <c r="J4">
+        <v>0.4807023781989444</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>6.274087999999999</v>
+      </c>
+      <c r="N4">
+        <v>18.822264</v>
+      </c>
+      <c r="O4">
+        <v>0.5269991658483459</v>
+      </c>
+      <c r="P4">
+        <v>0.5372406869597056</v>
+      </c>
+      <c r="Q4">
+        <v>176.2726585549093</v>
+      </c>
+      <c r="R4">
+        <v>1586.453926994184</v>
+      </c>
+      <c r="S4">
+        <v>0.2529021169209109</v>
+      </c>
+      <c r="T4">
+        <v>0.2582528758867651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>28.09534366666667</v>
+      </c>
+      <c r="H5">
+        <v>84.28603100000001</v>
+      </c>
+      <c r="I5">
+        <v>0.479890924521289</v>
+      </c>
+      <c r="J5">
+        <v>0.4807023781989444</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.6808595</v>
+      </c>
+      <c r="N5">
+        <v>1.361719</v>
+      </c>
+      <c r="O5">
+        <v>0.05718956899551328</v>
+      </c>
+      <c r="P5">
+        <v>0.038867314314903</v>
+      </c>
+      <c r="Q5">
+        <v>19.12898164121483</v>
+      </c>
+      <c r="R5">
+        <v>114.773889847289</v>
+      </c>
+      <c r="S5">
+        <v>0.02744475513823091</v>
+      </c>
+      <c r="T5">
+        <v>0.01868361042537975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>7.793901333333334</v>
+      </c>
+      <c r="H6">
+        <v>23.381704</v>
+      </c>
+      <c r="I6">
+        <v>0.1331260639078274</v>
+      </c>
+      <c r="J6">
+        <v>0.1333511684651965</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.3670103333333334</v>
+      </c>
+      <c r="N6">
+        <v>1.101031</v>
+      </c>
+      <c r="O6">
+        <v>0.03082745086208388</v>
+      </c>
+      <c r="P6">
+        <v>0.0314265409731758</v>
+      </c>
+      <c r="Q6">
+        <v>2.860442326313779</v>
+      </c>
+      <c r="R6">
+        <v>25.74398093682401</v>
+      </c>
+      <c r="S6">
+        <v>0.004103937193581188</v>
+      </c>
+      <c r="T6">
+        <v>0.004190765959592365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>7.793901333333334</v>
+      </c>
+      <c r="H7">
+        <v>23.381704</v>
+      </c>
+      <c r="I7">
+        <v>0.1331260639078274</v>
+      </c>
+      <c r="J7">
+        <v>0.1333511684651965</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.583351333333333</v>
+      </c>
+      <c r="N7">
+        <v>13.750054</v>
+      </c>
+      <c r="O7">
+        <v>0.3849838142940569</v>
+      </c>
+      <c r="P7">
+        <v>0.3924654577522156</v>
+      </c>
+      <c r="Q7">
+        <v>35.72218806800178</v>
+      </c>
+      <c r="R7">
+        <v>321.499692612016</v>
+      </c>
+      <c r="S7">
+        <v>0.05125137986518978</v>
+      </c>
+      <c r="T7">
+        <v>0.05233572737348614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>7.793901333333334</v>
+      </c>
+      <c r="H8">
+        <v>23.381704</v>
+      </c>
+      <c r="I8">
+        <v>0.1331260639078274</v>
+      </c>
+      <c r="J8">
+        <v>0.1333511684651965</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.274087999999999</v>
+      </c>
+      <c r="N8">
+        <v>18.822264</v>
+      </c>
+      <c r="O8">
+        <v>0.5269991658483459</v>
+      </c>
+      <c r="P8">
+        <v>0.5372406869597056</v>
+      </c>
+      <c r="Q8">
+        <v>48.89962282865066</v>
+      </c>
+      <c r="R8">
+        <v>440.096605457856</v>
+      </c>
+      <c r="S8">
+        <v>0.07015732463209864</v>
+      </c>
+      <c r="T8">
+        <v>0.07164167335312158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>24.973601718002</v>
-      </c>
-      <c r="H4">
-        <v>24.973601718002</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.64477239322105</v>
-      </c>
-      <c r="N4">
-        <v>0.64477239322105</v>
-      </c>
-      <c r="O4">
-        <v>0.06912397136358667</v>
-      </c>
-      <c r="P4">
-        <v>0.06912397136358667</v>
-      </c>
-      <c r="Q4">
-        <v>16.10228894706547</v>
-      </c>
-      <c r="R4">
-        <v>16.10228894706547</v>
-      </c>
-      <c r="S4">
-        <v>0.06912397136358667</v>
-      </c>
-      <c r="T4">
-        <v>0.06912397136358667</v>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>7.793901333333334</v>
+      </c>
+      <c r="H9">
+        <v>23.381704</v>
+      </c>
+      <c r="I9">
+        <v>0.1331260639078274</v>
+      </c>
+      <c r="J9">
+        <v>0.1333511684651965</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6808595</v>
+      </c>
+      <c r="N9">
+        <v>1.361719</v>
+      </c>
+      <c r="O9">
+        <v>0.05718956899551328</v>
+      </c>
+      <c r="P9">
+        <v>0.038867314314903</v>
+      </c>
+      <c r="Q9">
+        <v>5.306551764862667</v>
+      </c>
+      <c r="R9">
+        <v>31.839310589176</v>
+      </c>
+      <c r="S9">
+        <v>0.007613422216957806</v>
+      </c>
+      <c r="T9">
+        <v>0.005183001778996371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>22.35954133333334</v>
+      </c>
+      <c r="H10">
+        <v>67.078624</v>
+      </c>
+      <c r="I10">
+        <v>0.3819188364318155</v>
+      </c>
+      <c r="J10">
+        <v>0.3825646278576433</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.3670103333333334</v>
+      </c>
+      <c r="N10">
+        <v>1.101031</v>
+      </c>
+      <c r="O10">
+        <v>0.03082745086208388</v>
+      </c>
+      <c r="P10">
+        <v>0.0314265409731758</v>
+      </c>
+      <c r="Q10">
+        <v>8.206182717927113</v>
+      </c>
+      <c r="R10">
+        <v>73.85564446134401</v>
+      </c>
+      <c r="S10">
+        <v>0.01177358416340604</v>
+      </c>
+      <c r="T10">
+        <v>0.01202268295225598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>22.35954133333334</v>
+      </c>
+      <c r="H11">
+        <v>67.078624</v>
+      </c>
+      <c r="I11">
+        <v>0.3819188364318155</v>
+      </c>
+      <c r="J11">
+        <v>0.3825646278576433</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.583351333333333</v>
+      </c>
+      <c r="N11">
+        <v>13.750054</v>
+      </c>
+      <c r="O11">
+        <v>0.3849838142940569</v>
+      </c>
+      <c r="P11">
+        <v>0.3924654577522156</v>
+      </c>
+      <c r="Q11">
+        <v>102.4816335828551</v>
+      </c>
+      <c r="R11">
+        <v>922.334702245696</v>
+      </c>
+      <c r="S11">
+        <v>0.1470325704002683</v>
+      </c>
+      <c r="T11">
+        <v>0.150143401791956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>22.35954133333334</v>
+      </c>
+      <c r="H12">
+        <v>67.078624</v>
+      </c>
+      <c r="I12">
+        <v>0.3819188364318155</v>
+      </c>
+      <c r="J12">
+        <v>0.3825646278576433</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>6.274087999999999</v>
+      </c>
+      <c r="N12">
+        <v>18.822264</v>
+      </c>
+      <c r="O12">
+        <v>0.5269991658483459</v>
+      </c>
+      <c r="P12">
+        <v>0.5372406869597056</v>
+      </c>
+      <c r="Q12">
+        <v>140.2857299649707</v>
+      </c>
+      <c r="R12">
+        <v>1262.571569684736</v>
+      </c>
+      <c r="S12">
+        <v>0.2012709082213376</v>
+      </c>
+      <c r="T12">
+        <v>0.2055292834767244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>22.35954133333334</v>
+      </c>
+      <c r="H13">
+        <v>67.078624</v>
+      </c>
+      <c r="I13">
+        <v>0.3819188364318155</v>
+      </c>
+      <c r="J13">
+        <v>0.3825646278576433</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6808595</v>
+      </c>
+      <c r="N13">
+        <v>1.361719</v>
+      </c>
+      <c r="O13">
+        <v>0.05718956899551328</v>
+      </c>
+      <c r="P13">
+        <v>0.038867314314903</v>
+      </c>
+      <c r="Q13">
+        <v>15.22370613244267</v>
+      </c>
+      <c r="R13">
+        <v>91.342236794656</v>
+      </c>
+      <c r="S13">
+        <v>0.02184177364680346</v>
+      </c>
+      <c r="T13">
+        <v>0.01486925963670692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.2964835</v>
+      </c>
+      <c r="H14">
+        <v>0.592967</v>
+      </c>
+      <c r="I14">
+        <v>0.005064175139068094</v>
+      </c>
+      <c r="J14">
+        <v>0.00338182547821588</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.3670103333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.101031</v>
+      </c>
+      <c r="O14">
+        <v>0.03082745086208388</v>
+      </c>
+      <c r="P14">
+        <v>0.0314265409731758</v>
+      </c>
+      <c r="Q14">
+        <v>0.1088125081628333</v>
+      </c>
+      <c r="R14">
+        <v>0.6528750489770001</v>
+      </c>
+      <c r="S14">
+        <v>0.0001561156102566085</v>
+      </c>
+      <c r="T14">
+        <v>0.0001062790769552812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.2964835</v>
+      </c>
+      <c r="H15">
+        <v>0.592967</v>
+      </c>
+      <c r="I15">
+        <v>0.005064175139068094</v>
+      </c>
+      <c r="J15">
+        <v>0.00338182547821588</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.583351333333333</v>
+      </c>
+      <c r="N15">
+        <v>13.750054</v>
+      </c>
+      <c r="O15">
+        <v>0.3849838142940569</v>
+      </c>
+      <c r="P15">
+        <v>0.3924654577522156</v>
+      </c>
+      <c r="Q15">
+        <v>1.358888045036333</v>
+      </c>
+      <c r="R15">
+        <v>8.153328270217999</v>
+      </c>
+      <c r="S15">
+        <v>0.001949625461291571</v>
+      </c>
+      <c r="T15">
+        <v>0.001327249684346101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.2964835</v>
+      </c>
+      <c r="H16">
+        <v>0.592967</v>
+      </c>
+      <c r="I16">
+        <v>0.005064175139068094</v>
+      </c>
+      <c r="J16">
+        <v>0.00338182547821588</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.274087999999999</v>
+      </c>
+      <c r="N16">
+        <v>18.822264</v>
+      </c>
+      <c r="O16">
+        <v>0.5269991658483459</v>
+      </c>
+      <c r="P16">
+        <v>0.5372406869597056</v>
+      </c>
+      <c r="Q16">
+        <v>1.860163569548</v>
+      </c>
+      <c r="R16">
+        <v>11.160981417288</v>
+      </c>
+      <c r="S16">
+        <v>0.002668816073998817</v>
+      </c>
+      <c r="T16">
+        <v>0.001816854243094534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.2964835</v>
+      </c>
+      <c r="H17">
+        <v>0.592967</v>
+      </c>
+      <c r="I17">
+        <v>0.005064175139068094</v>
+      </c>
+      <c r="J17">
+        <v>0.00338182547821588</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6808595</v>
+      </c>
+      <c r="N17">
+        <v>1.361719</v>
+      </c>
+      <c r="O17">
+        <v>0.05718956899551328</v>
+      </c>
+      <c r="P17">
+        <v>0.038867314314903</v>
+      </c>
+      <c r="Q17">
+        <v>0.20186360756825</v>
+      </c>
+      <c r="R17">
+        <v>0.807454430273</v>
+      </c>
+      <c r="S17">
+        <v>0.0002896179935210978</v>
+      </c>
+      <c r="T17">
+        <v>0.0001314424738199637</v>
       </c>
     </row>
   </sheetData>
